--- a/pandas/country.xlsx
+++ b/pandas/country.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>Population</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>cntry</t>
+  </si>
+  <si>
+    <t>cptl</t>
+  </si>
+  <si>
+    <t>ppltn</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>india</t>
@@ -31,10 +34,16 @@
     <t>New delhi</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>france</t>
   </si>
   <si>
     <t>Paris</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>england</t>
@@ -409,42 +418,42 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1303131035</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>111908046</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>204565786</v>

--- a/pandas/country.xlsx
+++ b/pandas/country.xlsx
@@ -14,27 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>cntry</t>
-  </si>
-  <si>
-    <t>cptl</t>
-  </si>
-  <si>
-    <t>ppltn</t>
-  </si>
-  <si>
-    <t>0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>New delhi</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>New dehli</t>
   </si>
   <si>
     <t>france</t>
@@ -43,13 +37,10 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>england</t>
   </si>
   <si>
-    <t>London</t>
+    <t>landon</t>
   </si>
 </sst>
 </file>
@@ -418,45 +409,45 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="n">
-        <v>1303131035</v>
+        <v>134212015</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>111908046</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>204565786</v>
+        <v>204565789</v>
       </c>
     </row>
   </sheetData>
